--- a/first_pass/wb_vs_f_NC_count.xlsx
+++ b/first_pass/wb_vs_f_NC_count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojos/Documents/GitHub/WAWex/first_pass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD3567-25B7-864A-8AE5-43B4A0655D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1CEEC5-8004-C64A-A46E-0507DB0A5374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{09145268-073E-EE4E-80E2-3300C4E4182E}"/>
+    <workbookView xWindow="17360" yWindow="940" windowWidth="17060" windowHeight="19560" xr2:uid="{09145268-073E-EE4E-80E2-3300C4E4182E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,69 +36,888 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="294">
   <si>
     <t>Animal</t>
   </si>
   <si>
-    <t>wb_NC_count_million</t>
-  </si>
-  <si>
-    <t>f_NC_count_million</t>
-  </si>
-  <si>
-    <t>African Elephant</t>
-  </si>
-  <si>
-    <t>Papio hamadryas</t>
-  </si>
-  <si>
     <t>Giraffe</t>
   </si>
   <si>
-    <t>Long-tailed macaque</t>
-  </si>
-  <si>
-    <t>African grey parrot - Psittacus erithacus</t>
-  </si>
-  <si>
     <t>Panthera leo</t>
   </si>
   <si>
-    <t>Crocuta crocuta</t>
-  </si>
-  <si>
     <t>Emu</t>
   </si>
   <si>
-    <t>Canis lupus</t>
-  </si>
-  <si>
-    <t>Sus scrofa</t>
-  </si>
-  <si>
-    <t>Canis familiaris</t>
-  </si>
-  <si>
-    <t>Felis silvestris</t>
-  </si>
-  <si>
-    <t>Rat</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO ADD: </t>
-  </si>
-  <si>
-    <t>bee</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>anything else taken directly from wikipedia!</t>
+    <t>f_NC_count</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>Common fruit fly</t>
+  </si>
+  <si>
+    <t>Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>Honey bee</t>
+  </si>
+  <si>
+    <t>Common cockroach</t>
+  </si>
+  <si>
+    <t>Naked mole-rat</t>
+  </si>
+  <si>
+    <t>Heterocephalus glaber</t>
+  </si>
+  <si>
+    <t>Little free-tailed bat</t>
+  </si>
+  <si>
+    <t>Chaerephon pumilus</t>
+  </si>
+  <si>
+    <t>Smoky shrew</t>
+  </si>
+  <si>
+    <t>Sorex fumeus</t>
+  </si>
+  <si>
+    <t>Northern short-tailed shrew</t>
+  </si>
+  <si>
+    <t>Blarina brevicauda</t>
+  </si>
+  <si>
+    <t>Common bent-wing bat</t>
+  </si>
+  <si>
+    <t>Miniopterus schreibersii</t>
+  </si>
+  <si>
+    <t>African sheath-tailed bat</t>
+  </si>
+  <si>
+    <t>Coleura afra</t>
+  </si>
+  <si>
+    <t>Hottentot golden mole</t>
+  </si>
+  <si>
+    <t>Amblysomus hottentotus</t>
+  </si>
+  <si>
+    <t>Woermann's bat</t>
+  </si>
+  <si>
+    <t>Megaloglossus woermanni</t>
+  </si>
+  <si>
+    <t>Zenker's fruit bat</t>
+  </si>
+  <si>
+    <t>Scotonycteris zenkeri</t>
+  </si>
+  <si>
+    <t>Commerson's roundleaf bat</t>
+  </si>
+  <si>
+    <t>Hipposideros commersoni</t>
+  </si>
+  <si>
+    <t>Rufous trident bat</t>
+  </si>
+  <si>
+    <t>Triaenops persicus</t>
+  </si>
+  <si>
+    <t>House mouse</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>King quail</t>
+  </si>
+  <si>
+    <t>Synoicus chinensis</t>
+  </si>
+  <si>
+    <t>Heart-nosed bat</t>
+  </si>
+  <si>
+    <t>Cardioderma cor</t>
+  </si>
+  <si>
+    <t>Diamond dove</t>
+  </si>
+  <si>
+    <t>Geopelia cuneata</t>
+  </si>
+  <si>
+    <t>Golden hamster</t>
+  </si>
+  <si>
+    <t>Mesocricetus auratus</t>
+  </si>
+  <si>
+    <t>Short-palated fruit bat</t>
+  </si>
+  <si>
+    <t>Casinycteris argynnis</t>
+  </si>
+  <si>
+    <t>Ansell's mole-rat</t>
+  </si>
+  <si>
+    <t>Fukomys anselli</t>
+  </si>
+  <si>
+    <t>Mashona mole-rat</t>
+  </si>
+  <si>
+    <t>Fukomys darlingi</t>
+  </si>
+  <si>
+    <t>Common quail</t>
+  </si>
+  <si>
+    <t>Coturnix coturnix</t>
+  </si>
+  <si>
+    <t>Hairy-tailed mole</t>
+  </si>
+  <si>
+    <t>Parascalops breweri</t>
+  </si>
+  <si>
+    <t>Eastern rock elephant shrew</t>
+  </si>
+  <si>
+    <t>Elephantulus myurus</t>
+  </si>
+  <si>
+    <t>Star-nosed mole</t>
+  </si>
+  <si>
+    <t>Condylura cristata</t>
+  </si>
+  <si>
+    <t>Zebra finch</t>
+  </si>
+  <si>
+    <t>Taeniopygia guttata</t>
+  </si>
+  <si>
+    <t>African collared dove</t>
+  </si>
+  <si>
+    <t>Streptopelia roseogrisea</t>
+  </si>
+  <si>
+    <t>Silvery mole-rat</t>
+  </si>
+  <si>
+    <t>Heliophobius argenteocinereus</t>
+  </si>
+  <si>
+    <t>Northern bobwhite</t>
+  </si>
+  <si>
+    <t>Colinus virginianus</t>
+  </si>
+  <si>
+    <t>Eurasian blackcap</t>
+  </si>
+  <si>
+    <t>Sylvia atricapilla</t>
+  </si>
+  <si>
+    <t>Four-toed elephant shrew</t>
+  </si>
+  <si>
+    <t>Petrodromus tetradactylus</t>
+  </si>
+  <si>
+    <t>Wahlberg's epauletted fruit bat</t>
+  </si>
+  <si>
+    <t>Epomophorus wahlbergi</t>
+  </si>
+  <si>
+    <t>Goldcrest</t>
+  </si>
+  <si>
+    <t>Regulus regulus</t>
+  </si>
+  <si>
+    <t>Cape mole-rat</t>
+  </si>
+  <si>
+    <t>Georychus capensis</t>
+  </si>
+  <si>
+    <t>Grey partridge</t>
+  </si>
+  <si>
+    <t>Perdix perdix</t>
+  </si>
+  <si>
+    <t>Egyptian fruit bat</t>
+  </si>
+  <si>
+    <t>Rousettus aegyptiacus</t>
+  </si>
+  <si>
+    <t>Mechow's mole-rat</t>
+  </si>
+  <si>
+    <t>Fukomys mechowii</t>
+  </si>
+  <si>
+    <t>Damaraland mole-rat</t>
+  </si>
+  <si>
+    <t>Fukomys damarensis</t>
+  </si>
+  <si>
+    <t>Franquet's epauletted fruit bat</t>
+  </si>
+  <si>
+    <t>Epomops franqueti</t>
+  </si>
+  <si>
+    <t>Brown Rat</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Guyenne spiny rat</t>
+  </si>
+  <si>
+    <t>Proechimys cayennensis</t>
+  </si>
+  <si>
+    <t>Eastern mole</t>
+  </si>
+  <si>
+    <t>Scalopus aquaticus</t>
+  </si>
+  <si>
+    <t>Elegant crested tinamou</t>
+  </si>
+  <si>
+    <t>Eudromia elegans</t>
+  </si>
+  <si>
+    <t>Red junglefowl</t>
+  </si>
+  <si>
+    <t>Gallus gallus</t>
+  </si>
+  <si>
+    <t>Great tit</t>
+  </si>
+  <si>
+    <t>Parus major</t>
+  </si>
+  <si>
+    <t>Green-rumped parrotlet</t>
+  </si>
+  <si>
+    <t>Forpus passerinus</t>
+  </si>
+  <si>
+    <t>Quebracho crested tinamou</t>
+  </si>
+  <si>
+    <t>Eudromia formosa</t>
+  </si>
+  <si>
+    <t>Guinea pig</t>
+  </si>
+  <si>
+    <t>Cavia porcellus</t>
+  </si>
+  <si>
+    <t>Chilean tinamou</t>
+  </si>
+  <si>
+    <t>Nothoprocta perdicaria</t>
+  </si>
+  <si>
+    <t>Gray mouse lemur</t>
+  </si>
+  <si>
+    <t>Microcebus murinus</t>
+  </si>
+  <si>
+    <t>Common wood pigeon</t>
+  </si>
+  <si>
+    <t>Columba palumbus</t>
+  </si>
+  <si>
+    <t>Common treeshrew</t>
+  </si>
+  <si>
+    <t>Tupaia glis</t>
+  </si>
+  <si>
+    <t>Hammer-headed bat</t>
+  </si>
+  <si>
+    <t>Hypsignathus mostrosus</t>
+  </si>
+  <si>
+    <t>Wood duck</t>
+  </si>
+  <si>
+    <t>Aix sponsa</t>
+  </si>
+  <si>
+    <t>Rock dove</t>
+  </si>
+  <si>
+    <t>Columba livia</t>
+  </si>
+  <si>
+    <t>Budgerigar</t>
+  </si>
+  <si>
+    <t>Melopsittacus undulatus</t>
+  </si>
+  <si>
+    <t>Pygmy falcon</t>
+  </si>
+  <si>
+    <t>Polihierax semitorquatus</t>
+  </si>
+  <si>
+    <t>Cape dune mole-rat</t>
+  </si>
+  <si>
+    <t>Bathyergus suillus</t>
+  </si>
+  <si>
+    <t>Mallard</t>
+  </si>
+  <si>
+    <t>Anas platyrhynchos</t>
+  </si>
+  <si>
+    <t>Eurasian teal</t>
+  </si>
+  <si>
+    <t>Anas crecca</t>
+  </si>
+  <si>
+    <t>Common blackbird</t>
+  </si>
+  <si>
+    <t>Turdus merula</t>
+  </si>
+  <si>
+    <t>Marbled duck</t>
+  </si>
+  <si>
+    <t>Marmaronetta angustirostris</t>
+  </si>
+  <si>
+    <t>Reeves's pheasant</t>
+  </si>
+  <si>
+    <t>Syrmaticus reevesii</t>
+  </si>
+  <si>
+    <t>Eurasian sparrowhawk</t>
+  </si>
+  <si>
+    <t>Accipiter nisus</t>
+  </si>
+  <si>
+    <t>Ferret</t>
+  </si>
+  <si>
+    <t>Mustela putorius furo</t>
+  </si>
+  <si>
+    <t>Cockatiel</t>
+  </si>
+  <si>
+    <t>Nymphicus hollandicus</t>
+  </si>
+  <si>
+    <t>Banded mongoose</t>
+  </si>
+  <si>
+    <t>Mungos mungo</t>
+  </si>
+  <si>
+    <t>Prairie dog</t>
+  </si>
+  <si>
+    <t>Genus:Cynomys</t>
+  </si>
+  <si>
+    <t>Red-breasted goose</t>
+  </si>
+  <si>
+    <t>Branta ruficollis</t>
+  </si>
+  <si>
+    <t>Common starling</t>
+  </si>
+  <si>
+    <t>Sturnus vulgaris</t>
+  </si>
+  <si>
+    <t>Wild turkey</t>
+  </si>
+  <si>
+    <t>Meleagris gallopavo</t>
+  </si>
+  <si>
+    <t>European rabbit</t>
+  </si>
+  <si>
+    <t>Oryctolagus cuniculus</t>
+  </si>
+  <si>
+    <t>Western tree hyrax</t>
+  </si>
+  <si>
+    <t>Dendrohyrax dorsalis</t>
+  </si>
+  <si>
+    <t>Eurasian pygmy owl</t>
+  </si>
+  <si>
+    <t>Glaucidium passerinum</t>
+  </si>
+  <si>
+    <t>Indian peafowl</t>
+  </si>
+  <si>
+    <t>Pavo cristatus</t>
+  </si>
+  <si>
+    <t>Victoria crowned pigeon</t>
+  </si>
+  <si>
+    <t>Goura victoria</t>
+  </si>
+  <si>
+    <t>Little owl</t>
+  </si>
+  <si>
+    <t>Athene noctua</t>
+  </si>
+  <si>
+    <t>Common kestrel</t>
+  </si>
+  <si>
+    <t>Falco tinnunculus</t>
+  </si>
+  <si>
+    <t>Common marmoset</t>
+  </si>
+  <si>
+    <t>Callithrix jacchus</t>
+  </si>
+  <si>
+    <t>Eastern rosella</t>
+  </si>
+  <si>
+    <t>Platycercus eximius</t>
+  </si>
+  <si>
+    <t>Yellow-knobbed curassow</t>
+  </si>
+  <si>
+    <t>Crax daubentoni</t>
+  </si>
+  <si>
+    <t>Barn owl</t>
+  </si>
+  <si>
+    <t>Tyto alba</t>
+  </si>
+  <si>
+    <t>Monk parakeet</t>
+  </si>
+  <si>
+    <t>Myiopsitta monachus</t>
+  </si>
+  <si>
+    <t>Greylag goose</t>
+  </si>
+  <si>
+    <t>Anser anser</t>
+  </si>
+  <si>
+    <t>Azure-winged magpie</t>
+  </si>
+  <si>
+    <t>Cyanopica cyanus</t>
+  </si>
+  <si>
+    <t>Rock hyrax</t>
+  </si>
+  <si>
+    <t>Procavia capensis</t>
+  </si>
+  <si>
+    <t>House cat</t>
+  </si>
+  <si>
+    <t>Felis catus</t>
+  </si>
+  <si>
+    <t>Black-rumped agouti</t>
+  </si>
+  <si>
+    <t>Dasyprocta prymnolopha</t>
+  </si>
+  <si>
+    <t>Eurasian magpie</t>
+  </si>
+  <si>
+    <t>Pica pica</t>
+  </si>
+  <si>
+    <t>Common hill myna</t>
+  </si>
+  <si>
+    <t>Gracula religiosa</t>
+  </si>
+  <si>
+    <t>Northern greater galago</t>
+  </si>
+  <si>
+    <t>Otolemur garnettii</t>
+  </si>
+  <si>
+    <t>Western jackdaw</t>
+  </si>
+  <si>
+    <t>Coloeus monedula</t>
+  </si>
+  <si>
+    <t>Long-eared owl</t>
+  </si>
+  <si>
+    <t>Asio otus</t>
+  </si>
+  <si>
+    <t>Common buzzard</t>
+  </si>
+  <si>
+    <t>Buteo buteo</t>
+  </si>
+  <si>
+    <t>Mute swan</t>
+  </si>
+  <si>
+    <t>Cygnus olor</t>
+  </si>
+  <si>
+    <t>Black vulture</t>
+  </si>
+  <si>
+    <t>Coragyps atratus</t>
+  </si>
+  <si>
+    <t>Greater rhea</t>
+  </si>
+  <si>
+    <t>Rhea americana</t>
+  </si>
+  <si>
+    <t>Eurasian jay</t>
+  </si>
+  <si>
+    <t>Garrulus glandarius</t>
+  </si>
+  <si>
+    <t>Alexandrine parakeet</t>
+  </si>
+  <si>
+    <t>Psittacula eupatria</t>
+  </si>
+  <si>
+    <t>Raccoon dog</t>
+  </si>
+  <si>
+    <t>Nyctereutes procyonoides</t>
+  </si>
+  <si>
+    <t>Tanimbar corella</t>
+  </si>
+  <si>
+    <t>Cacatua goffiniana</t>
+  </si>
+  <si>
+    <t>Saker falcon</t>
+  </si>
+  <si>
+    <t>Falco cherrug</t>
+  </si>
+  <si>
+    <t>Dromaius novaehollandiae</t>
+  </si>
+  <si>
+    <t>Three-striped night monkey</t>
+  </si>
+  <si>
+    <t>Aotus trivirgatus</t>
+  </si>
+  <si>
+    <t>Rook</t>
+  </si>
+  <si>
+    <t>Corvus frugilegus</t>
+  </si>
+  <si>
+    <t>Grey parrot</t>
+  </si>
+  <si>
+    <t>Psittacus erithacus</t>
+  </si>
+  <si>
+    <t>Tawny owl</t>
+  </si>
+  <si>
+    <t>Strix aluco</t>
+  </si>
+  <si>
+    <t>Capybara</t>
+  </si>
+  <si>
+    <t>Hydrochoerus hydrochaeris</t>
+  </si>
+  <si>
+    <t>Common ostrich</t>
+  </si>
+  <si>
+    <t>Struthio camelus</t>
+  </si>
+  <si>
+    <t>White-tailed eagle</t>
+  </si>
+  <si>
+    <t>Haliaeetus albicilla</t>
+  </si>
+  <si>
+    <t>Golden jackal</t>
+  </si>
+  <si>
+    <t>Canis aureus</t>
+  </si>
+  <si>
+    <t>Snowy owl</t>
+  </si>
+  <si>
+    <t>Bubo scandiacus</t>
+  </si>
+  <si>
+    <t>Eurasian eagle-owl</t>
+  </si>
+  <si>
+    <t>Bubo bubo</t>
+  </si>
+  <si>
+    <t>Red fox</t>
+  </si>
+  <si>
+    <t>Vulpes vulpes</t>
+  </si>
+  <si>
+    <t>Sulphur-crested cockatoo</t>
+  </si>
+  <si>
+    <t>Cacatua galerita</t>
+  </si>
+  <si>
+    <t>Raccoon</t>
+  </si>
+  <si>
+    <t>Procyon lotor</t>
+  </si>
+  <si>
+    <t>Kea</t>
+  </si>
+  <si>
+    <t>Nestor notabilis</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>Corvus corax</t>
+  </si>
+  <si>
+    <t>Domesticated pig</t>
+  </si>
+  <si>
+    <t>Sus scrofa domesticus</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Canis lupus familiaris</t>
+  </si>
+  <si>
+    <t>Chow Chow</t>
+  </si>
+  <si>
+    <t>Yorkshire Terrier</t>
+  </si>
+  <si>
+    <t>Springbok</t>
+  </si>
+  <si>
+    <t>Antidorcas marsupialis</t>
+  </si>
+  <si>
+    <t>West Highland White Terrier</t>
+  </si>
+  <si>
+    <t>Blesbok</t>
+  </si>
+  <si>
+    <t>Damaliscus pygargus phillipsi</t>
+  </si>
+  <si>
+    <t>Blue and yellow macaw</t>
+  </si>
+  <si>
+    <t>Ara ararauna</t>
+  </si>
+  <si>
+    <t>Common squirrel monkey</t>
+  </si>
+  <si>
+    <t>Saimiri sciureus</t>
+  </si>
+  <si>
+    <t>Crab-eating macaque</t>
+  </si>
+  <si>
+    <t>Macaca fascicularis</t>
+  </si>
+  <si>
+    <t>German Shepherd</t>
+  </si>
+  <si>
+    <t>Tufted capuchin</t>
+  </si>
+  <si>
+    <t>Sapajus apella</t>
+  </si>
+  <si>
+    <t>Bonnet macaque</t>
+  </si>
+  <si>
+    <t>Macaca radiata</t>
+  </si>
+  <si>
+    <t>Striped hyena</t>
+  </si>
+  <si>
+    <t>Hyaena hyaena</t>
+  </si>
+  <si>
+    <t>Komondor</t>
+  </si>
+  <si>
+    <t>Transylvanian Hound</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Greater kudu</t>
+  </si>
+  <si>
+    <t>Tragelaphus strepsiceros</t>
+  </si>
+  <si>
+    <t>Rhesus macaque</t>
+  </si>
+  <si>
+    <t>Macaca mulatta</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Brown bear</t>
+  </si>
+  <si>
+    <t>Ursus arctos</t>
+  </si>
+  <si>
+    <t>Giraffa camelopardalis</t>
+  </si>
+  <si>
+    <t>Yellow baboon</t>
+  </si>
+  <si>
+    <t>Papio cynocephalus</t>
+  </si>
+  <si>
+    <t>Chimpanzee</t>
+  </si>
+  <si>
+    <t>Pan troglodytes</t>
+  </si>
+  <si>
+    <t>Orangutan</t>
+  </si>
+  <si>
+    <t>Genus: Pongo</t>
+  </si>
+  <si>
+    <t>Western gorilla</t>
+  </si>
+  <si>
+    <t>Gorilla gorilla</t>
+  </si>
+  <si>
+    <t>Common minke whale</t>
+  </si>
+  <si>
+    <t>Balaenoptera acutorostrata</t>
+  </si>
+  <si>
+    <t>Short-finned pilot whale</t>
+  </si>
+  <si>
+    <t>Globicephala macrorhynchus</t>
+  </si>
+  <si>
+    <t>African elephant</t>
+  </si>
+  <si>
+    <t>Loxodonta africana</t>
+  </si>
+  <si>
+    <t>wb_NC_count</t>
+  </si>
+  <si>
+    <t>Apis mellifera</t>
+  </si>
+  <si>
+    <t>Periplaneta americana</t>
   </si>
 </sst>
 </file>
@@ -147,10 +966,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,200 +1306,2105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F478D2AF-02CD-3849-92FD-EC83160686BC}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>170000</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="3">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>26880000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12000000</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <v>56000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3">
+        <v>59000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>22000000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>65000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>12000000</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>13000000</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3">
+        <v>67000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14000000</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3">
+        <v>71000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3">
+        <v>20523000</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3">
+        <v>80478000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3">
+        <v>81000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18209000</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3">
+        <v>87879000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3">
+        <v>17000000</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3">
+        <v>99000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3">
+        <v>103000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3">
+        <v>12000000</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3">
+        <v>113000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3">
+        <v>22568000</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3">
+        <v>117760000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>16000000</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3">
+        <v>124000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3">
+        <v>26000000</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3">
+        <v>129000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3">
+        <v>17000000</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3">
+        <v>131000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3">
+        <v>55000000</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3">
+        <v>131000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3">
+        <v>39997000</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3">
+        <v>139271000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3">
+        <v>25000000</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3">
+        <v>148000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3">
+        <v>39112000</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="3">
+        <v>148399000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
+        <v>52000000</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3">
+        <v>157000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3">
+        <v>34000000</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3">
+        <v>157000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="3">
+        <v>26000000</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3">
+        <v>162000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3">
+        <v>64000000</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="3">
+        <v>164000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3">
+        <v>26000000</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3">
+        <v>170000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3">
+        <v>36882000</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="3">
+        <v>170287000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3">
+        <v>29000000</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="3">
+        <v>172000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3">
+        <v>23000000</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="3">
+        <v>174000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3">
+        <v>21000000</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="3">
+        <v>178000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="3">
+        <v>23000000</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="3">
+        <v>186000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="3">
+        <v>31000000</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="3">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="3">
+        <v>26000000</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="3">
+        <v>202000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="3">
+        <v>27000000</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="3">
+        <v>204000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="3">
+        <v>51384000</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="3">
+        <v>217768000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="3">
+        <v>61000000</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="3">
+        <v>221000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3">
+        <v>83000000</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="3">
+        <v>226000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="3">
+        <v>103000000</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="3">
+        <v>227000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="3">
+        <v>48292000</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="3">
+        <v>235671000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="3">
+        <v>43510000</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="3">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="3">
+        <v>59130000</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="3">
+        <v>241374000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="3">
+        <v>22310000</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="3">
+        <v>254710000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="3">
+        <v>51325000</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="3">
+        <v>258681000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="3">
+        <v>60000000</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="3">
+        <v>261000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="3">
+        <v>24000000</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="3">
+        <v>275000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="3">
+        <v>138206000</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="3">
+        <v>305816000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="3">
+        <v>72000000</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="3">
+        <v>310000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="3">
+        <v>149000000</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="3">
+        <v>322000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="3">
+        <v>131898000</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="3">
+        <v>350367000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="3">
+        <v>43000000</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="3">
+        <v>361000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="3">
+        <v>112255000</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="3">
+        <v>367000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="3">
+        <v>167287000</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="3">
+        <v>375409000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="3">
+        <v>136000000</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="3">
+        <v>379000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="3">
+        <v>130142000</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="3">
+        <v>386920000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="3">
+        <v>80688000</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="3">
+        <v>387173000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="3">
+        <v>87832000</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="3">
+        <v>401751000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="3">
+        <v>38950000</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="3">
+        <v>404000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="3">
+        <v>258000000</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="3">
+        <v>453000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="3">
+        <v>115770000</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="3">
+        <v>454000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="3">
+        <v>53770000</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" s="3">
+        <v>473940000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="3">
+        <v>148617000</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="3">
+        <v>482705000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="3">
+        <v>226000000</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="3">
+        <v>483000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="3">
+        <v>105654000</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="3">
+        <v>492873000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="3">
+        <v>71450000</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="3">
+        <v>494200000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="3">
+        <v>99000000</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="3">
+        <v>505000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="3">
+        <v>364000000</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="3">
+        <v>533263000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="3">
+        <v>129621000</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="3">
+        <v>570934000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="3">
+        <v>118445000</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="3">
+        <v>578697000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="3">
+        <v>400822000</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="3">
+        <v>585923000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="3">
+        <v>237903000</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="3">
+        <v>624582000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="3">
+        <v>245000000</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="3">
+        <v>636000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="3">
+        <v>333000000</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="3">
+        <v>642000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="3">
+        <v>124624000</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="3">
+        <v>652989000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="3">
+        <v>437000000</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="3">
+        <v>690000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="3">
+        <v>396000000</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="3">
+        <v>697000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="3">
+        <v>258650000</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="3">
+        <v>738232000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="3">
+        <v>400000000</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="3">
+        <v>741000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="3">
+        <v>198000000</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="3">
+        <v>756000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="3">
+        <v>249830000</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="3">
+        <v>760000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="3">
+        <v>113000000</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="3">
+        <v>857000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="3">
+        <v>443000000</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="3">
+        <v>897000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="3">
+        <v>410000000</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="3">
+        <v>906000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="3">
+        <v>226000000</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="3">
+        <v>936000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="3">
+        <v>492000000</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="3">
+        <v>968000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="3">
+        <v>673000000</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="3">
+        <v>991310000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="3">
+        <v>351700000</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="3">
+        <v>323661000</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="3">
+        <v>398899000</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1010000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="3">
+        <v>330342000</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1030000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="3">
+        <v>529000000</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1090000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="3">
+        <v>575000000</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1100000000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="3">
+        <v>240180000</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1160000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="3">
+        <v>599000000</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1160000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="3">
+        <v>442946000</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1200000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="3">
+        <v>439000000</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1340000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="3">
+        <v>442000000</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1470000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" s="3">
+        <v>820000000</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1510000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="3">
+        <v>850000000</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1570000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1153000000</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1580000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="3">
+        <v>306500000</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1600000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="3">
+        <v>479410000</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1620000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" s="3">
+        <v>542926000</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1650000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="3">
+        <v>393620000</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1730000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1270000000</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1810000000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1328000000</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1900000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" s="3">
+        <v>355010000</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" s="4">
+        <v>2110000000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1135000000</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="4">
+        <v>2120000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="3">
+        <v>453000000</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" s="4">
+        <v>2150000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1281000000</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" s="4">
+        <v>2150000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1204000000</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D120" s="4">
+        <v>2170000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" s="3">
+        <v>425000000</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" s="4">
+        <v>2220000000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="3">
+        <v>513330000</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122" s="4">
+        <v>2510000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="3">
+        <v>471500000</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" s="4">
+        <v>2610000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="3">
+        <v>572140000</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D124" s="4">
+        <v>2640000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" s="3">
+        <v>396900000</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2720000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" s="3">
+        <v>440160000</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D126" s="4">
+        <v>2830000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="3">
+        <v>570670000</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" s="4">
+        <v>3060000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1900000000</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D128" s="4">
+        <v>3140000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1340000000</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" s="4">
+        <v>3250000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="3">
+        <v>800960000</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" s="4">
+        <v>3440000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="3">
+        <v>885460000</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D131" s="4">
+        <v>3530000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1140000000</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" s="4">
+        <v>3690000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1660000000</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D133" s="4">
+        <v>3780000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="3">
+        <v>495280000</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D134" s="4">
+        <v>3890000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="3">
+        <v>883380000</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D135" s="4">
+        <v>3990000000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" s="3">
+        <v>725760000</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D136" s="4">
+        <v>4390000000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" s="3">
+        <v>545240000</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="4">
+        <v>4670000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138" s="3">
+        <v>762570000</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D138" s="4">
+        <v>4910000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1710000000</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D139" s="4">
+        <v>6380000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B140" s="3">
+        <v>16340000000</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D140" s="4">
+        <v>8600000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="3">
+        <v>250970000</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D141" s="4">
+        <v>9590000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>257000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10950</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10750</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3440</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1570</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4670</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3890</v>
-      </c>
-      <c r="C8" s="2">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1340</v>
-      </c>
-      <c r="C9" s="2">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2250</v>
-      </c>
-      <c r="C10" s="2">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2220</v>
-      </c>
-      <c r="C11" s="2">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2250</v>
-      </c>
-      <c r="C12" s="2">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>760</v>
-      </c>
-      <c r="C13" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>200</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>71</v>
-      </c>
-      <c r="C15" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
+      <c r="B142" s="3">
+        <v>1731000000</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D142" s="4">
+        <v>10800000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2880000000</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D143" s="4">
+        <v>11000000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B144" s="3">
+        <v>7400000000</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D144" s="4">
+        <v>28000000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B145" s="3">
+        <v>7704000000</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D145" s="4">
+        <v>32600000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B146" s="3">
+        <v>9100000000</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D146" s="4">
+        <v>33400000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B147" s="3">
+        <v>3134000000</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D147" s="4">
+        <v>57000000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" s="3">
+        <v>11850000000</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D148" s="4">
+        <v>128000000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" s="3">
+        <v>5600000000</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D149" s="4">
+        <v>257000000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>